--- a/biology/Zoologie/Imago/Imago.xlsx
+++ b/biology/Zoologie/Imago/Imago.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En biologie, le terme d’imago (au masculin) ou de stade imaginal désigne le stade final d'un individu dont le développement se déroule en plusieurs phases (en général œuf, larve, imago). Ce terme est en général utilisé pour les arthropodes, mais aussi pour les amphibiens.
 </t>
@@ -511,7 +523,9 @@
           <t>Insectes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les insectes ptérygotes, le stade imaginal est caractérisé par le développement des ailes (sauf chez les espèces secondairement aptères) et de l'appareil génital.
 Ce que l'on appelle communément un « papillon » est l'imago des lépidoptères. 
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugène Séguy, Dictionnaire des termes techniques d’entomologie élémentaire, vol. XLI, Paris, Éditions Lechevalier, coll. « Encyclopédie entomologique », 1967, 465 p..
  Portail de l’entomologie   Portail de l’herpétologie                    </t>
